--- a/LR3/table_1_63.xlsx
+++ b/LR3/table_1_63.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15765" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -130,15 +122,6 @@
     <t>Куропаткин 8</t>
   </si>
   <si>
-    <t>Куропаткин 9</t>
-  </si>
-  <si>
-    <t>Куропаткин 10</t>
-  </si>
-  <si>
-    <t>Куропаткин 11</t>
-  </si>
-  <si>
     <t>№ квартиры</t>
   </si>
   <si>
@@ -181,10 +164,19 @@
     <t>Штраф, руб.</t>
   </si>
   <si>
-    <t>Куропаткин 12</t>
-  </si>
-  <si>
     <t>Камалов</t>
+  </si>
+  <si>
+    <t>Санников</t>
+  </si>
+  <si>
+    <t>Ахмадуллина</t>
+  </si>
+  <si>
+    <t>Роман</t>
+  </si>
+  <si>
+    <t>Мохамед</t>
   </si>
 </sst>
 </file>
@@ -586,7 +578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -596,12 +588,12 @@
     <col min="2" max="2" width="37.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="8.7109375" style="5"/>
   </cols>
@@ -614,37 +606,37 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -828,7 +820,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="5"/>
@@ -873,7 +865,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="5"/>
@@ -1188,7 +1180,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="5"/>
@@ -1724,30 +1716,30 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <f t="shared" si="4"/>
+        <f>A26+1</f>
         <v>25</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>24</v>
+      <c r="B27" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="5"/>
+        <f>C26-0.5</f>
         <v>58</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="6"/>
+        <f>D26</f>
         <v>69.300000000000011</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="0"/>
+        <f>C27*D27</f>
         <v>4019.4000000000005</v>
       </c>
       <c r="F27" s="3">
-        <f t="shared" si="7"/>
+        <f>$F$3</f>
         <v>44813</v>
       </c>
       <c r="G27" s="3">
-        <f t="shared" si="8"/>
+        <f>G26+1</f>
         <v>44829</v>
       </c>
       <c r="H27" s="1">
@@ -1773,7 +1765,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="5"/>
@@ -1818,7 +1810,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="5"/>
@@ -1863,7 +1855,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="5"/>
@@ -1908,7 +1900,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="5"/>
@@ -1953,7 +1945,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="5"/>
@@ -1998,7 +1990,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="5"/>
@@ -2043,7 +2035,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="5"/>
@@ -2088,7 +2080,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="5"/>
@@ -2099,7 +2091,7 @@
         <v>34.650000000000006</v>
       </c>
       <c r="E35" s="1">
-        <f>C35*D35</f>
+        <f t="shared" si="0"/>
         <v>1871.1000000000004</v>
       </c>
       <c r="F35" s="3">
@@ -2133,7 +2125,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="5"/>
@@ -2178,7 +2170,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="5"/>
@@ -2223,7 +2215,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="5"/>
@@ -2262,49 +2254,41 @@
         <v>2089.125</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B39" s="2"/>
-      <c r="F39" s="1"/>
-    </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C40" s="4">
         <f>FLOOR(SUM(K3:K38),1)</f>
         <v>149206</v>
       </c>
-      <c r="F40" s="1"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
-      <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
         <v>27</v>
       </c>
-      <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>
         <v>4851.0000000000009</v>
       </c>
-      <c r="F43" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
